--- a/electrocomponents inventory_backup.xlsx
+++ b/electrocomponents inventory_backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmwave\Desktop\share document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DFB65D-680F-4594-AD60-B59BDCDF9B55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2947268-F798-468C-8B90-9F8DDCC0EEF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15396" xr2:uid="{4EF1B334-B9A4-468B-ADB9-1CC422E31F4C}"/>
   </bookViews>
@@ -17,6 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_0201">Sheet1!$K$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$E$85</definedName>
     <definedName name="daass" comment="sdas" localSheetId="0">Sheet1!$K$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="346">
   <si>
     <t>capacitors</t>
   </si>
@@ -854,6 +855,248 @@
   </si>
   <si>
     <t>etc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>CRCW060356R0FKEA</t>
+  </si>
+  <si>
+    <t>CRCW0603453RFKEA</t>
+  </si>
+  <si>
+    <t>RC0603FR-07402RL</t>
+  </si>
+  <si>
+    <t>CR0603-JW-303ELF</t>
+  </si>
+  <si>
+    <t>30K</t>
+  </si>
+  <si>
+    <t>RC0603FR-07240RL</t>
+  </si>
+  <si>
+    <t>RMCF0603FT40R2</t>
+  </si>
+  <si>
+    <t>CR0603-FX-1503ELF</t>
+  </si>
+  <si>
+    <t>150K</t>
+  </si>
+  <si>
+    <t>RMCF0603FT120K</t>
+  </si>
+  <si>
+    <t>120K</t>
+  </si>
+  <si>
+    <t>RC0603FR-07102KL</t>
+  </si>
+  <si>
+    <t>102K</t>
+  </si>
+  <si>
+    <t>CRCW0805-8871FRT1</t>
+  </si>
+  <si>
+    <t>8.87K</t>
+  </si>
+  <si>
+    <t>RC0603FR-07287RL</t>
+  </si>
+  <si>
+    <t>RC0603FR-07133RL</t>
+  </si>
+  <si>
+    <t>CR0603-FX-3002ELF</t>
+  </si>
+  <si>
+    <t>CR0603-FX-1742ELF</t>
+  </si>
+  <si>
+    <t>17.4K</t>
+  </si>
+  <si>
+    <t>CR0603-FX-2002ELF</t>
+  </si>
+  <si>
+    <t>20K</t>
+  </si>
+  <si>
+    <t>RC0603FR-0727KL</t>
+  </si>
+  <si>
+    <t>27K</t>
+  </si>
+  <si>
+    <t>RC0603FR-074K75L</t>
+  </si>
+  <si>
+    <t>4.75K</t>
+  </si>
+  <si>
+    <t>CR0603-FX-1212ELF</t>
+  </si>
+  <si>
+    <t>12.1K</t>
+  </si>
+  <si>
+    <t>RMCF0603FT28K0</t>
+  </si>
+  <si>
+    <t>28K</t>
+  </si>
+  <si>
+    <t>RMCF00603FT7K15</t>
+  </si>
+  <si>
+    <t>7.15K</t>
+  </si>
+  <si>
+    <t>CR0603-FX-715ELF</t>
+  </si>
+  <si>
+    <t>RC0603FR-072KL</t>
+  </si>
+  <si>
+    <t>2K</t>
+  </si>
+  <si>
+    <t>CRCW060317K4FKEA</t>
+  </si>
+  <si>
+    <t>RMCF0603JT30K0</t>
+  </si>
+  <si>
+    <t>CR0603-FX-1023ELF</t>
+  </si>
+  <si>
+    <t>ESR10EZPF88R7</t>
+  </si>
+  <si>
+    <t>88.7K</t>
+  </si>
+  <si>
+    <t>RC0603FR-0775RL</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0603FR-0724R9L</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0603FR-0713RL</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>CR0603-FX-2200ELF</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMCF0603FG402R</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMCF1206FT249R</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0603FR-07100RL</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERJ-3GEY0R00V</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0402FR-0720KL</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>20k</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>0402</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>CR0603-FX-1803ELF</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>180k</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>CR0603-FX-2493ELF</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>249k</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>CR0603-FX-1403ELF</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>140k</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRCW0805100RFKEA</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>0805</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>RK73H2ATTD4R12F</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>RK73H2ATTD4R99F</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC1206FR-07215RL</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESR10EZPF88R7</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0603FR-07215RL</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRCW0805-2211FRT1</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.21k</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMCF1206FT82R0</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>RK73Z2ELTD</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>1210</t>
   </si>
 </sst>
 </file>
@@ -921,7 +1164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -965,6 +1208,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1303,13 +1561,15 @@
   <dimension ref="A1:AC86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="4" width="10.59765625" customWidth="1"/>
-    <col min="5" max="5" width="19.69921875" customWidth="1"/>
+    <col min="1" max="1" width="27.69921875" customWidth="1"/>
+    <col min="2" max="2" width="13.69921875" customWidth="1"/>
+    <col min="3" max="4" width="10.59765625" customWidth="1"/>
+    <col min="5" max="5" width="19.69921875" style="21" customWidth="1"/>
     <col min="6" max="6" width="21.19921875" customWidth="1"/>
     <col min="7" max="7" width="10.8984375" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
@@ -1404,7 +1664,7 @@
       <c r="D2" t="s">
         <v>191</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="18" t="s">
         <v>190</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1481,22 +1741,22 @@
       </c>
     </row>
     <row r="3" spans="1:29">
-      <c r="B3" s="8" t="s">
-        <v>234</v>
+      <c r="B3" s="8">
+        <v>0</v>
       </c>
       <c r="C3">
-        <f>IF(RIGHT(B3,1)="K",VALUE(LEFT(B3,LEN(B3)-1))*1000,VALUE(B3))</f>
-        <v>634000</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>196</v>
+        <f>IF(RIGHT(B3,1)="k", VALUE(LEFT(B3,LEN(B3)-1))*1000, VALUE(B3))</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>193</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="10" t="s">
         <v>208</v>
       </c>
       <c r="H3" s="2">
-        <f>IF(ISNUMBER(SEARCH("pF",G3)), VALUE(LEFT(G3,SEARCH("pF",G3)-1)),
+        <f t="shared" ref="H3:H35" si="0">IF(ISNUMBER(SEARCH("pF",G3)), VALUE(LEFT(G3,SEARCH("pF",G3)-1)),
  IF(ISNUMBER(SEARCH("nF",G3)), VALUE(LEFT(G3,SEARCH("nF",G3)-1))*1000,
  IF(ISNUMBER(SEARCH("uF",G3)), VALUE(LEFT(G3,SEARCH("uF",G3)-1))*1000000,"")))</f>
         <v>1</v>
@@ -1548,24 +1808,22 @@
       </c>
     </row>
     <row r="4" spans="1:29">
-      <c r="B4" s="8" t="s">
-        <v>235</v>
+      <c r="B4" s="8">
+        <v>0</v>
       </c>
       <c r="C4">
         <f>IF(RIGHT(B4,1)="k", VALUE(LEFT(B4,LEN(B4)-1))*1000, VALUE(B4))</f>
-        <v>250000</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>196</v>
+        <v>0</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>202</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="10" t="s">
         <v>208</v>
       </c>
       <c r="H4" s="2">
-        <f>IF(ISNUMBER(SEARCH("pF",G4)), VALUE(LEFT(G4,SEARCH("pF",G4)-1)),
- IF(ISNUMBER(SEARCH("nF",G4)), VALUE(LEFT(G4,SEARCH("nF",G4)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G4)), VALUE(LEFT(G4,SEARCH("uF",G4)-1))*1000000,"")))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I4" s="6"/>
@@ -1603,24 +1861,23 @@
       </c>
     </row>
     <row r="5" spans="1:29">
-      <c r="B5" s="8" t="s">
-        <v>236</v>
-      </c>
+      <c r="A5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B5" s="3"/>
       <c r="C5">
-        <f t="shared" ref="C5:C38" si="0">IF(RIGHT(B5,1)="k", VALUE(LEFT(B5,LEN(B5)-1))*1000, VALUE(B5))</f>
-        <v>200000</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>196</v>
+        <f>IF(RIGHT(B5,1)="k", VALUE(LEFT(B5,LEN(B5)-1))*1000, VALUE(B5))</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>317</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="10" t="s">
         <v>219</v>
       </c>
       <c r="H5" s="2">
-        <f>IF(ISNUMBER(SEARCH("pF",G5)), VALUE(LEFT(G5,SEARCH("pF",G5)-1)),
- IF(ISNUMBER(SEARCH("nF",G5)), VALUE(LEFT(G5,SEARCH("nF",G5)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G5)), VALUE(LEFT(G5,SEARCH("uF",G5)-1))*1000000,"")))</f>
+        <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="I5" s="6"/>
@@ -1650,24 +1907,25 @@
       </c>
     </row>
     <row r="6" spans="1:29">
-      <c r="B6" s="8" t="s">
-        <v>237</v>
+      <c r="A6" t="s">
+        <v>344</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
       </c>
       <c r="C6">
         <f>IF(RIGHT(B6,1)="k", VALUE(LEFT(B6,LEN(B6)-1))*1000, VALUE(B6))</f>
-        <v>191000</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>202</v>
+        <v>0</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="10" t="s">
         <v>218</v>
       </c>
       <c r="H6" s="2">
-        <f>IF(ISNUMBER(SEARCH("pF",G6)), VALUE(LEFT(G6,SEARCH("pF",G6)-1)),
- IF(ISNUMBER(SEARCH("nF",G6)), VALUE(LEFT(G6,SEARCH("nF",G6)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G6)), VALUE(LEFT(G6,SEARCH("uF",G6)-1))*1000000,"")))</f>
+        <f t="shared" si="0"/>
         <v>8.1999999999999993</v>
       </c>
       <c r="I6" s="6"/>
@@ -1694,24 +1952,25 @@
       </c>
     </row>
     <row r="7" spans="1:29">
-      <c r="B7" s="8" t="s">
-        <v>201</v>
+      <c r="A7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B7">
+        <v>4.12</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
-        <v>82000</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>193</v>
+        <f>IF(RIGHT(B7,1)="k", VALUE(LEFT(B7,LEN(B7)-1))*1000, VALUE(B7))</f>
+        <v>4.12</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>335</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="10" t="s">
         <v>221</v>
       </c>
       <c r="H7" s="2">
-        <f>IF(ISNUMBER(SEARCH("pF",G7)), VALUE(LEFT(G7,SEARCH("pF",G7)-1)),
- IF(ISNUMBER(SEARCH("nF",G7)), VALUE(LEFT(G7,SEARCH("nF",G7)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G7)), VALUE(LEFT(G7,SEARCH("uF",G7)-1))*1000000,"")))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I7" s="6"/>
@@ -1735,24 +1994,25 @@
       </c>
     </row>
     <row r="8" spans="1:29">
-      <c r="B8" s="8" t="s">
-        <v>238</v>
+      <c r="A8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B8">
+        <v>4.99</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
-        <v>60400</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>202</v>
+        <f>IF(RIGHT(B8,1)="k", VALUE(LEFT(B8,LEN(B8)-1))*1000, VALUE(B8))</f>
+        <v>4.99</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>335</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="10" t="s">
         <v>216</v>
       </c>
       <c r="H8" s="2">
-        <f>IF(ISNUMBER(SEARCH("pF",G8)), VALUE(LEFT(G8,SEARCH("pF",G8)-1)),
- IF(ISNUMBER(SEARCH("nF",G8)), VALUE(LEFT(G8,SEARCH("nF",G8)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G8)), VALUE(LEFT(G8,SEARCH("uF",G8)-1))*1000000,"")))</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="I8" s="6"/>
@@ -1779,24 +2039,22 @@
       </c>
     </row>
     <row r="9" spans="1:29">
-      <c r="B9" s="8" t="s">
-        <v>199</v>
+      <c r="B9" s="8">
+        <v>10</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
-        <v>47000</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>193</v>
+        <f>IF(RIGHT(B9,1)="k", VALUE(LEFT(B9,LEN(B9)-1))*1000, VALUE(B9))</f>
+        <v>10</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>194</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="10" t="s">
         <v>217</v>
       </c>
       <c r="H9" s="2">
-        <f>IF(ISNUMBER(SEARCH("pF",G9)), VALUE(LEFT(G9,SEARCH("pF",G9)-1)),
- IF(ISNUMBER(SEARCH("nF",G9)), VALUE(LEFT(G9,SEARCH("nF",G9)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G9)), VALUE(LEFT(G9,SEARCH("uF",G9)-1))*1000000,"")))</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="I9" s="6"/>
@@ -1823,24 +2081,25 @@
       </c>
     </row>
     <row r="10" spans="1:29">
-      <c r="B10" s="8" t="s">
-        <v>200</v>
+      <c r="A10" t="s">
+        <v>319</v>
+      </c>
+      <c r="B10" s="3">
+        <v>13</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
-        <v>38300</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>193</v>
+        <f>IF(RIGHT(B10,1)="k", VALUE(LEFT(B10,LEN(B10)-1))*1000, VALUE(B10))</f>
+        <v>13</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>317</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="10" t="s">
         <v>227</v>
       </c>
       <c r="H10" s="2">
-        <f>IF(ISNUMBER(SEARCH("pF",G10)), VALUE(LEFT(G10,SEARCH("pF",G10)-1)),
- IF(ISNUMBER(SEARCH("nF",G10)), VALUE(LEFT(G10,SEARCH("nF",G10)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G10)), VALUE(LEFT(G10,SEARCH("uF",G10)-1))*1000000,"")))</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="I10" s="6"/>
@@ -1867,24 +2126,22 @@
       </c>
     </row>
     <row r="11" spans="1:29">
-      <c r="B11" s="8" t="s">
-        <v>239</v>
+      <c r="B11" s="8">
+        <v>15</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
-        <v>30000</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>194</v>
+        <f>IF(RIGHT(B11,1)="k", VALUE(LEFT(B11,LEN(B11)-1))*1000, VALUE(B11))</f>
+        <v>15</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>196</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="9" t="s">
         <v>222</v>
       </c>
       <c r="H11" s="2">
-        <f>IF(ISNUMBER(SEARCH("pF",G11)), VALUE(LEFT(G11,SEARCH("pF",G11)-1)),
- IF(ISNUMBER(SEARCH("nF",G11)), VALUE(LEFT(G11,SEARCH("nF",G11)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G11)), VALUE(LEFT(G11,SEARCH("uF",G11)-1))*1000000,"")))</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="I11" s="5"/>
@@ -1908,14 +2165,14 @@
       </c>
     </row>
     <row r="12" spans="1:29">
-      <c r="B12" s="8" t="s">
-        <v>197</v>
+      <c r="B12" s="8">
+        <v>16.5</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
-        <v>18000</v>
-      </c>
-      <c r="E12" s="6" t="s">
+        <f>IF(RIGHT(B12,1)="k", VALUE(LEFT(B12,LEN(B12)-1))*1000, VALUE(B12))</f>
+        <v>16.5</v>
+      </c>
+      <c r="E12" s="20" t="s">
         <v>193</v>
       </c>
       <c r="F12" s="6"/>
@@ -1923,9 +2180,7 @@
         <v>222</v>
       </c>
       <c r="H12" s="2">
-        <f>IF(ISNUMBER(SEARCH("pF",G12)), VALUE(LEFT(G12,SEARCH("pF",G12)-1)),
- IF(ISNUMBER(SEARCH("nF",G12)), VALUE(LEFT(G12,SEARCH("nF",G12)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G12)), VALUE(LEFT(G12,SEARCH("uF",G12)-1))*1000000,"")))</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="I12" s="6"/>
@@ -1952,24 +2207,22 @@
       </c>
     </row>
     <row r="13" spans="1:29">
-      <c r="B13" s="8" t="s">
-        <v>240</v>
+      <c r="B13" s="8">
+        <v>24.9</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
-        <v>16900</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>196</v>
+        <f>IF(RIGHT(B13,1)="k", VALUE(LEFT(B13,LEN(B13)-1))*1000, VALUE(B13))</f>
+        <v>24.9</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>203</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="10" t="s">
         <v>22</v>
       </c>
       <c r="H13" s="2">
-        <f>IF(ISNUMBER(SEARCH("pF",G13)), VALUE(LEFT(G13,SEARCH("pF",G13)-1)),
- IF(ISNUMBER(SEARCH("nF",G13)), VALUE(LEFT(G13,SEARCH("nF",G13)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G13)), VALUE(LEFT(G13,SEARCH("uF",G13)-1))*1000000,"")))</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="I13" s="6"/>
@@ -1987,24 +2240,25 @@
       </c>
     </row>
     <row r="14" spans="1:29">
-      <c r="B14" s="8" t="s">
-        <v>241</v>
+      <c r="A14" t="s">
+        <v>318</v>
+      </c>
+      <c r="B14" s="3">
+        <v>24.9</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
-        <v>12000</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>196</v>
+        <f>IF(RIGHT(B14,1)="k", VALUE(LEFT(B14,LEN(B14)-1))*1000, VALUE(B14))</f>
+        <v>24.9</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>317</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="9" t="s">
         <v>206</v>
       </c>
       <c r="H14" s="2">
-        <f>IF(ISNUMBER(SEARCH("pF",G14)), VALUE(LEFT(G14,SEARCH("pF",G14)-1)),
- IF(ISNUMBER(SEARCH("nF",G14)), VALUE(LEFT(G14,SEARCH("nF",G14)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G14)), VALUE(LEFT(G14,SEARCH("uF",G14)-1))*1000000,"")))</f>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="I14" s="5"/>
@@ -2031,24 +2285,22 @@
       </c>
     </row>
     <row r="15" spans="1:29">
-      <c r="B15" s="8" t="s">
-        <v>198</v>
+      <c r="B15" s="8">
+        <v>27.4</v>
       </c>
       <c r="C15">
         <f>IF(RIGHT(B15,1)="k", VALUE(LEFT(B15,LEN(B15)-1))*1000, VALUE(B15))</f>
-        <v>8060.0000000000009</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>193</v>
+        <v>27.4</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>202</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="10" t="s">
         <v>224</v>
       </c>
       <c r="H15" s="2">
-        <f>IF(ISNUMBER(SEARCH("pF",G15)), VALUE(LEFT(G15,SEARCH("pF",G15)-1)),
- IF(ISNUMBER(SEARCH("nF",G15)), VALUE(LEFT(G15,SEARCH("nF",G15)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G15)), VALUE(LEFT(G15,SEARCH("uF",G15)-1))*1000000,"")))</f>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="I15" s="6"/>
@@ -2072,15 +2324,18 @@
       </c>
     </row>
     <row r="16" spans="1:29">
-      <c r="B16" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>6650</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>202</v>
+      <c r="A16" t="s">
+        <v>282</v>
+      </c>
+      <c r="B16" s="3">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="C16" s="3">
+        <f>IF(RIGHT(B16,1)="k", VALUE(LEFT(B16,LEN(B16)-1))*1000, VALUE(B16))</f>
+        <v>40.200000000000003</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>194</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>231</v>
@@ -2089,9 +2344,7 @@
         <v>224</v>
       </c>
       <c r="H16" s="2">
-        <f>IF(ISNUMBER(SEARCH("pF",G16)), VALUE(LEFT(G16,SEARCH("pF",G16)-1)),
- IF(ISNUMBER(SEARCH("nF",G16)), VALUE(LEFT(G16,SEARCH("nF",G16)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G16)), VALUE(LEFT(G16,SEARCH("uF",G16)-1))*1000000,"")))</f>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="I16" s="6"/>
@@ -2114,25 +2367,26 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="2:29">
-      <c r="B17" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>202</v>
+    <row r="17" spans="1:29">
+      <c r="A17" t="s">
+        <v>276</v>
+      </c>
+      <c r="B17" s="7">
+        <v>56</v>
+      </c>
+      <c r="C17" s="7">
+        <f>IF(RIGHT(B17,1)="k", VALUE(LEFT(B17,LEN(B17)-1))*1000, VALUE(B17))</f>
+        <v>56</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>194</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="10" t="s">
         <v>213</v>
       </c>
       <c r="H17" s="2">
-        <f>IF(ISNUMBER(SEARCH("pF",G17)), VALUE(LEFT(G17,SEARCH("pF",G17)-1)),
- IF(ISNUMBER(SEARCH("nF",G17)), VALUE(LEFT(G17,SEARCH("nF",G17)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G17)), VALUE(LEFT(G17,SEARCH("uF",G17)-1))*1000000,"")))</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="I17" s="6"/>
@@ -2158,25 +2412,26 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="2:29">
-      <c r="B18" s="8" t="s">
-        <v>244</v>
+    <row r="18" spans="1:29">
+      <c r="A18" t="s">
+        <v>316</v>
+      </c>
+      <c r="B18" s="7">
+        <v>75</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
-        <v>3920</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>202</v>
+        <f>IF(RIGHT(B18,1)="k", VALUE(LEFT(B18,LEN(B18)-1))*1000, VALUE(B18))</f>
+        <v>75</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>317</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="10" t="s">
         <v>229</v>
       </c>
       <c r="H18" s="2">
-        <f>IF(ISNUMBER(SEARCH("pF",G18)), VALUE(LEFT(G18,SEARCH("pF",G18)-1)),
- IF(ISNUMBER(SEARCH("nF",G18)), VALUE(LEFT(G18,SEARCH("nF",G18)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G18)), VALUE(LEFT(G18,SEARCH("uF",G18)-1))*1000000,"")))</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="I18" s="6"/>
@@ -2202,25 +2457,26 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="2:29">
-      <c r="B19" s="8" t="s">
-        <v>192</v>
+    <row r="19" spans="1:29">
+      <c r="A19" t="s">
+        <v>343</v>
+      </c>
+      <c r="B19">
+        <v>82</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
-        <v>3320</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>194</v>
+        <f>IF(RIGHT(B19,1)="k", VALUE(LEFT(B19,LEN(B19)-1))*1000, VALUE(B19))</f>
+        <v>82</v>
+      </c>
+      <c r="E19" s="21">
+        <v>1206</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="10" t="s">
         <v>212</v>
       </c>
       <c r="H19" s="2">
-        <f>IF(ISNUMBER(SEARCH("pF",G19)), VALUE(LEFT(G19,SEARCH("pF",G19)-1)),
- IF(ISNUMBER(SEARCH("nF",G19)), VALUE(LEFT(G19,SEARCH("nF",G19)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G19)), VALUE(LEFT(G19,SEARCH("uF",G19)-1))*1000000,"")))</f>
+        <f t="shared" si="0"/>
         <v>100000</v>
       </c>
       <c r="I19" s="6"/>
@@ -2246,25 +2502,26 @@
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="2:29">
-      <c r="B20" s="8" t="s">
-        <v>192</v>
+    <row r="20" spans="1:29">
+      <c r="A20" t="s">
+        <v>339</v>
+      </c>
+      <c r="B20">
+        <v>88.7</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
-        <v>3320</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>202</v>
+        <f>IF(RIGHT(B20,1)="k", VALUE(LEFT(B20,LEN(B20)-1))*1000, VALUE(B20))</f>
+        <v>88.7</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>335</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="10" t="s">
         <v>88</v>
       </c>
       <c r="H20" s="2">
-        <f>IF(ISNUMBER(SEARCH("pF",G20)), VALUE(LEFT(G20,SEARCH("pF",G20)-1)),
- IF(ISNUMBER(SEARCH("nF",G20)), VALUE(LEFT(G20,SEARCH("nF",G20)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G20)), VALUE(LEFT(G20,SEARCH("uF",G20)-1))*1000000,"")))</f>
+        <f t="shared" si="0"/>
         <v>100000</v>
       </c>
       <c r="I20" s="6"/>
@@ -2287,25 +2544,23 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="2:29">
-      <c r="B21" s="8" t="s">
-        <v>245</v>
+    <row r="21" spans="1:29">
+      <c r="B21" s="8">
+        <v>91</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
-        <v>1500</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>202</v>
+        <f>IF(RIGHT(B21,1)="k", VALUE(LEFT(B21,LEN(B21)-1))*1000, VALUE(B21))</f>
+        <v>91</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>194</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="10" t="s">
         <v>210</v>
       </c>
       <c r="H21" s="2">
-        <f>IF(ISNUMBER(SEARCH("pF",G21)), VALUE(LEFT(G21,SEARCH("pF",G21)-1)),
- IF(ISNUMBER(SEARCH("nF",G21)), VALUE(LEFT(G21,SEARCH("nF",G21)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G21)), VALUE(LEFT(G21,SEARCH("uF",G21)-1))*1000000,"")))</f>
+        <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
       <c r="I21" s="6"/>
@@ -2331,25 +2586,23 @@
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="2:29">
-      <c r="B22" s="8" t="s">
-        <v>246</v>
+    <row r="22" spans="1:29">
+      <c r="B22" s="8">
+        <v>100</v>
       </c>
       <c r="C22">
         <f>IF(RIGHT(B22,1)="k", VALUE(LEFT(B22,LEN(B22)-1))*1000, VALUE(B22))</f>
-        <v>1300</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>194</v>
+        <v>100</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>193</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="10" t="s">
         <v>223</v>
       </c>
       <c r="H22" s="2">
-        <f>IF(ISNUMBER(SEARCH("pF",G22)), VALUE(LEFT(G22,SEARCH("pF",G22)-1)),
- IF(ISNUMBER(SEARCH("nF",G22)), VALUE(LEFT(G22,SEARCH("nF",G22)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G22)), VALUE(LEFT(G22,SEARCH("uF",G22)-1))*1000000,"")))</f>
+        <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
       <c r="I22" s="6"/>
@@ -2369,25 +2622,26 @@
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="2:29">
-      <c r="B23" s="8" t="s">
-        <v>246</v>
+    <row r="23" spans="1:29">
+      <c r="A23" t="s">
+        <v>323</v>
+      </c>
+      <c r="B23" s="3">
+        <v>100</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
-        <v>1300</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>204</v>
+        <f>IF(RIGHT(B23,1)="k", VALUE(LEFT(B23,LEN(B23)-1))*1000, VALUE(B23))</f>
+        <v>100</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>317</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="10" t="s">
         <v>210</v>
       </c>
       <c r="H23" s="2">
-        <f>IF(ISNUMBER(SEARCH("pF",G23)), VALUE(LEFT(G23,SEARCH("pF",G23)-1)),
- IF(ISNUMBER(SEARCH("nF",G23)), VALUE(LEFT(G23,SEARCH("nF",G23)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G23)), VALUE(LEFT(G23,SEARCH("uF",G23)-1))*1000000,"")))</f>
+        <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
       <c r="I23" s="6"/>
@@ -2407,25 +2661,26 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="2:29">
-      <c r="B24" s="8" t="s">
-        <v>246</v>
+    <row r="24" spans="1:29">
+      <c r="A24" t="s">
+        <v>334</v>
+      </c>
+      <c r="B24">
+        <v>100</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
-        <v>1300</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>202</v>
+        <f>IF(RIGHT(B24,1)="k", VALUE(LEFT(B24,LEN(B24)-1))*1000, VALUE(B24))</f>
+        <v>100</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>335</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="10" t="s">
         <v>211</v>
       </c>
       <c r="H24" s="2">
-        <f>IF(ISNUMBER(SEARCH("pF",G24)), VALUE(LEFT(G24,SEARCH("pF",G24)-1)),
- IF(ISNUMBER(SEARCH("nF",G24)), VALUE(LEFT(G24,SEARCH("nF",G24)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G24)), VALUE(LEFT(G24,SEARCH("uF",G24)-1))*1000000,"")))</f>
+        <f t="shared" si="0"/>
         <v>2200000</v>
       </c>
       <c r="I24" s="6"/>
@@ -2445,25 +2700,26 @@
         <v>177</v>
       </c>
     </row>
-    <row r="25" spans="2:29">
-      <c r="B25" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>1200</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>202</v>
+    <row r="25" spans="1:29">
+      <c r="A25" t="s">
+        <v>292</v>
+      </c>
+      <c r="B25">
+        <v>133</v>
+      </c>
+      <c r="C25" s="3">
+        <f>IF(RIGHT(B25,1)="k", VALUE(LEFT(B25,LEN(B25)-1))*1000, VALUE(B25))</f>
+        <v>133</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>194</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="10" t="s">
         <v>230</v>
       </c>
       <c r="H25" s="2">
-        <f>IF(ISNUMBER(SEARCH("pF",G25)), VALUE(LEFT(G25,SEARCH("pF",G25)-1)),
- IF(ISNUMBER(SEARCH("nF",G25)), VALUE(LEFT(G25,SEARCH("nF",G25)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G25)), VALUE(LEFT(G25,SEARCH("uF",G25)-1))*1000000,"")))</f>
+        <f t="shared" si="0"/>
         <v>2200000</v>
       </c>
       <c r="I25" s="6"/>
@@ -2483,25 +2739,26 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="2:29">
-      <c r="B26" s="8" t="s">
-        <v>195</v>
+    <row r="26" spans="1:29">
+      <c r="A26" t="s">
+        <v>338</v>
+      </c>
+      <c r="B26">
+        <v>215</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
-        <v>1050</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>194</v>
+        <f>IF(RIGHT(B26,1)="k", VALUE(LEFT(B26,LEN(B26)-1))*1000, VALUE(B26))</f>
+        <v>215</v>
+      </c>
+      <c r="E26" s="21">
+        <v>1206</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="10" t="s">
         <v>230</v>
       </c>
       <c r="H26" s="2">
-        <f>IF(ISNUMBER(SEARCH("pF",G26)), VALUE(LEFT(G26,SEARCH("pF",G26)-1)),
- IF(ISNUMBER(SEARCH("nF",G26)), VALUE(LEFT(G26,SEARCH("nF",G26)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G26)), VALUE(LEFT(G26,SEARCH("uF",G26)-1))*1000000,"")))</f>
+        <f t="shared" si="0"/>
         <v>2200000</v>
       </c>
       <c r="I26" s="6"/>
@@ -2518,25 +2775,26 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="2:29">
-      <c r="B27" s="8" t="s">
-        <v>248</v>
+    <row r="27" spans="1:29">
+      <c r="A27" t="s">
+        <v>340</v>
+      </c>
+      <c r="B27">
+        <v>215</v>
       </c>
       <c r="C27">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>194</v>
+        <f>IF(RIGHT(B27,1)="k", VALUE(LEFT(B27,LEN(B27)-1))*1000, VALUE(B27))</f>
+        <v>215</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>317</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="10" t="s">
         <v>209</v>
       </c>
       <c r="H27" s="2">
-        <f>IF(ISNUMBER(SEARCH("pF",G27)), VALUE(LEFT(G27,SEARCH("pF",G27)-1)),
- IF(ISNUMBER(SEARCH("nF",G27)), VALUE(LEFT(G27,SEARCH("nF",G27)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G27)), VALUE(LEFT(G27,SEARCH("uF",G27)-1))*1000000,"")))</f>
+        <f t="shared" si="0"/>
         <v>10000000</v>
       </c>
       <c r="I27" s="6"/>
@@ -2553,25 +2811,26 @@
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="2:29">
-      <c r="B28" s="8">
-        <v>715</v>
+    <row r="28" spans="1:29">
+      <c r="A28" t="s">
+        <v>320</v>
+      </c>
+      <c r="B28" s="3">
+        <v>220</v>
       </c>
       <c r="C28">
-        <f t="shared" si="0"/>
-        <v>715</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>194</v>
+        <f>IF(RIGHT(B28,1)="k", VALUE(LEFT(B28,LEN(B28)-1))*1000, VALUE(B28))</f>
+        <v>220</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>317</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="10" t="s">
         <v>4</v>
       </c>
       <c r="H28" s="2">
-        <f>IF(ISNUMBER(SEARCH("pF",G28)), VALUE(LEFT(G28,SEARCH("pF",G28)-1)),
- IF(ISNUMBER(SEARCH("nF",G28)), VALUE(LEFT(G28,SEARCH("nF",G28)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G28)), VALUE(LEFT(G28,SEARCH("uF",G28)-1))*1000000,"")))</f>
+        <f t="shared" si="0"/>
         <v>10000000</v>
       </c>
       <c r="I28" s="6"/>
@@ -2585,25 +2844,26 @@
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="2:29">
-      <c r="B29" s="8">
-        <v>300</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>202</v>
+    <row r="29" spans="1:29">
+      <c r="A29" t="s">
+        <v>281</v>
+      </c>
+      <c r="B29" s="3">
+        <v>240</v>
+      </c>
+      <c r="C29" s="3">
+        <f>IF(RIGHT(B29,1)="k", VALUE(LEFT(B29,LEN(B29)-1))*1000, VALUE(B29))</f>
+        <v>240</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>194</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="10" t="s">
         <v>209</v>
       </c>
       <c r="H29" s="2">
-        <f>IF(ISNUMBER(SEARCH("pF",G29)), VALUE(LEFT(G29,SEARCH("pF",G29)-1)),
- IF(ISNUMBER(SEARCH("nF",G29)), VALUE(LEFT(G29,SEARCH("nF",G29)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G29)), VALUE(LEFT(G29,SEARCH("uF",G29)-1))*1000000,"")))</f>
+        <f t="shared" si="0"/>
         <v>10000000</v>
       </c>
       <c r="I29" s="6"/>
@@ -2620,25 +2880,26 @@
         <v>182</v>
       </c>
     </row>
-    <row r="30" spans="2:29">
-      <c r="B30" s="8">
-        <v>100</v>
+    <row r="30" spans="1:29">
+      <c r="A30" t="s">
+        <v>322</v>
+      </c>
+      <c r="B30" s="3">
+        <v>249</v>
       </c>
       <c r="C30">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>193</v>
+        <f>IF(RIGHT(B30,1)="k", VALUE(LEFT(B30,LEN(B30)-1))*1000, VALUE(B30))</f>
+        <v>249</v>
+      </c>
+      <c r="E30" s="21">
+        <v>1206</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="10" t="s">
         <v>226</v>
       </c>
       <c r="H30" s="2">
-        <f>IF(ISNUMBER(SEARCH("pF",G30)), VALUE(LEFT(G30,SEARCH("pF",G30)-1)),
- IF(ISNUMBER(SEARCH("nF",G30)), VALUE(LEFT(G30,SEARCH("nF",G30)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G30)), VALUE(LEFT(G30,SEARCH("uF",G30)-1))*1000000,"")))</f>
+        <f t="shared" si="0"/>
         <v>16000000</v>
       </c>
       <c r="I30" s="6"/>
@@ -2655,15 +2916,18 @@
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="2:29">
-      <c r="B31" s="8">
-        <v>91</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="0"/>
-        <v>91</v>
-      </c>
-      <c r="E31" s="6" t="s">
+    <row r="31" spans="1:29">
+      <c r="A31" t="s">
+        <v>291</v>
+      </c>
+      <c r="B31">
+        <v>287</v>
+      </c>
+      <c r="C31" s="3">
+        <f>IF(RIGHT(B31,1)="k", VALUE(LEFT(B31,LEN(B31)-1))*1000, VALUE(B31))</f>
+        <v>287</v>
+      </c>
+      <c r="E31" s="19" t="s">
         <v>194</v>
       </c>
       <c r="F31" s="6"/>
@@ -2671,9 +2935,7 @@
         <v>15</v>
       </c>
       <c r="H31" s="2">
-        <f>IF(ISNUMBER(SEARCH("pF",G31)), VALUE(LEFT(G31,SEARCH("pF",G31)-1)),
- IF(ISNUMBER(SEARCH("nF",G31)), VALUE(LEFT(G31,SEARCH("nF",G31)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G31)), VALUE(LEFT(G31,SEARCH("uF",G31)-1))*1000000,"")))</f>
+        <f t="shared" si="0"/>
         <v>220000000</v>
       </c>
       <c r="I31" s="6"/>
@@ -2687,15 +2949,15 @@
         <v>184</v>
       </c>
     </row>
-    <row r="32" spans="2:29">
+    <row r="32" spans="1:29">
       <c r="B32" s="8">
-        <v>27.4</v>
+        <v>300</v>
       </c>
       <c r="C32">
-        <f t="shared" si="0"/>
-        <v>27.4</v>
-      </c>
-      <c r="E32" s="6" t="s">
+        <f>IF(RIGHT(B32,1)="k", VALUE(LEFT(B32,LEN(B32)-1))*1000, VALUE(B32))</f>
+        <v>300</v>
+      </c>
+      <c r="E32" s="20" t="s">
         <v>202</v>
       </c>
       <c r="F32" s="6"/>
@@ -2703,9 +2965,7 @@
         <v>214</v>
       </c>
       <c r="H32" s="2">
-        <f>IF(ISNUMBER(SEARCH("pF",G32)), VALUE(LEFT(G32,SEARCH("pF",G32)-1)),
- IF(ISNUMBER(SEARCH("nF",G32)), VALUE(LEFT(G32,SEARCH("nF",G32)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G32)), VALUE(LEFT(G32,SEARCH("uF",G32)-1))*1000000,"")))</f>
+        <f t="shared" si="0"/>
         <v>220000000</v>
       </c>
       <c r="I32" s="6"/>
@@ -2722,25 +2982,26 @@
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="2:29">
-      <c r="B33" s="8">
-        <v>24.9</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="0"/>
-        <v>24.9</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>203</v>
+    <row r="33" spans="1:29">
+      <c r="A33" t="s">
+        <v>278</v>
+      </c>
+      <c r="B33" s="3">
+        <v>402</v>
+      </c>
+      <c r="C33" s="3">
+        <f>IF(RIGHT(B33,1)="k", VALUE(LEFT(B33,LEN(B33)-1))*1000, VALUE(B33))</f>
+        <v>402</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>194</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="10" t="s">
         <v>232</v>
       </c>
       <c r="H33" s="2">
-        <f>IF(ISNUMBER(SEARCH("pF",G33)), VALUE(LEFT(G33,SEARCH("pF",G33)-1)),
- IF(ISNUMBER(SEARCH("nF",G33)), VALUE(LEFT(G33,SEARCH("nF",G33)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G33)), VALUE(LEFT(G33,SEARCH("uF",G33)-1))*1000000,"")))</f>
+        <f t="shared" si="0"/>
         <v>220000000</v>
       </c>
       <c r="I33" s="6" t="s">
@@ -2756,25 +3017,26 @@
         <v>186</v>
       </c>
     </row>
-    <row r="34" spans="2:29">
-      <c r="B34" s="8">
-        <v>16.5</v>
+    <row r="34" spans="1:29">
+      <c r="A34" t="s">
+        <v>321</v>
+      </c>
+      <c r="B34" s="3">
+        <v>402</v>
       </c>
       <c r="C34">
         <f>IF(RIGHT(B34,1)="k", VALUE(LEFT(B34,LEN(B34)-1))*1000, VALUE(B34))</f>
-        <v>16.5</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>193</v>
+        <v>402</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>317</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H34" s="2">
-        <f>IF(ISNUMBER(SEARCH("pF",G34)), VALUE(LEFT(G34,SEARCH("pF",G34)-1)),
- IF(ISNUMBER(SEARCH("nF",G34)), VALUE(LEFT(G34,SEARCH("nF",G34)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G34)), VALUE(LEFT(G34,SEARCH("uF",G34)-1))*1000000,"")))</f>
+        <f t="shared" si="0"/>
         <v>330000000</v>
       </c>
       <c r="I34" s="5"/>
@@ -2788,25 +3050,26 @@
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="2:29">
-      <c r="B35" s="8">
-        <v>15</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>196</v>
+    <row r="35" spans="1:29">
+      <c r="A35" t="s">
+        <v>277</v>
+      </c>
+      <c r="B35" s="3">
+        <v>453</v>
+      </c>
+      <c r="C35" s="3">
+        <f>IF(RIGHT(B35,1)="k", VALUE(LEFT(B35,LEN(B35)-1))*1000, VALUE(B35))</f>
+        <v>453</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>194</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H35" s="2">
-        <f>IF(ISNUMBER(SEARCH("pF",G35)), VALUE(LEFT(G35,SEARCH("pF",G35)-1)),
- IF(ISNUMBER(SEARCH("nF",G35)), VALUE(LEFT(G35,SEARCH("nF",G35)-1))*1000,
- IF(ISNUMBER(SEARCH("uF",G35)), VALUE(LEFT(G35,SEARCH("uF",G35)-1))*1000000,"")))</f>
+        <f t="shared" si="0"/>
         <v>470000000</v>
       </c>
       <c r="I35" s="6"/>
@@ -2817,15 +3080,15 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="2:29">
+    <row r="36" spans="1:29">
       <c r="B36" s="8">
-        <v>10</v>
+        <v>715</v>
       </c>
       <c r="C36">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E36" s="6" t="s">
+        <f>IF(RIGHT(B36,1)="k", VALUE(LEFT(B36,LEN(B36)-1))*1000, VALUE(B36))</f>
+        <v>715</v>
+      </c>
+      <c r="E36" s="19" t="s">
         <v>194</v>
       </c>
       <c r="F36" s="6"/>
@@ -2836,16 +3099,16 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="2:29">
-      <c r="B37" s="8">
-        <v>0</v>
+    <row r="37" spans="1:29">
+      <c r="B37" s="8" t="s">
+        <v>248</v>
       </c>
       <c r="C37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>193</v>
+        <f>IF(RIGHT(B37,1)="k", VALUE(LEFT(B37,LEN(B37)-1))*1000, VALUE(B37))</f>
+        <v>1000</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>194</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -2855,16 +3118,16 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="2:29">
-      <c r="B38" s="8">
-        <v>0</v>
+    <row r="38" spans="1:29">
+      <c r="B38" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="C38">
         <f>IF(RIGHT(B38,1)="k", VALUE(LEFT(B38,LEN(B38)-1))*1000, VALUE(B38))</f>
-        <v>0</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>202</v>
+        <v>1050</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>194</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -2873,239 +3136,781 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="2:29">
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
+    <row r="39" spans="1:29">
+      <c r="B39" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C39">
+        <f>IF(RIGHT(B39,1)="k", VALUE(LEFT(B39,LEN(B39)-1))*1000, VALUE(B39))</f>
+        <v>1200</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>202</v>
+      </c>
       <c r="U39" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="2:29">
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
+    <row r="40" spans="1:29">
+      <c r="B40" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C40">
+        <f>IF(RIGHT(B40,1)="k", VALUE(LEFT(B40,LEN(B40)-1))*1000, VALUE(B40))</f>
+        <v>1300</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>194</v>
+      </c>
       <c r="U40" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="2:29">
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
+    <row r="41" spans="1:29">
+      <c r="B41" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C41">
+        <f>IF(RIGHT(B41,1)="k", VALUE(LEFT(B41,LEN(B41)-1))*1000, VALUE(B41))</f>
+        <v>1300</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>204</v>
+      </c>
       <c r="U41" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="2:29">
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
+    <row r="42" spans="1:29">
+      <c r="B42" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C42">
+        <f>IF(RIGHT(B42,1)="k", VALUE(LEFT(B42,LEN(B42)-1))*1000, VALUE(B42))</f>
+        <v>1300</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>202</v>
+      </c>
       <c r="U42" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="2:29">
+    <row r="43" spans="1:29">
+      <c r="B43" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C43">
+        <f>IF(RIGHT(B43,1)="k", VALUE(LEFT(B43,LEN(B43)-1))*1000, VALUE(B43))</f>
+        <v>1500</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>202</v>
+      </c>
       <c r="U43" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="2:29">
+    <row r="44" spans="1:29">
+      <c r="A44" t="s">
+        <v>309</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C44" s="3">
+        <f>IF(RIGHT(B44,1)="k", VALUE(LEFT(B44,LEN(B44)-1))*1000, VALUE(B44))</f>
+        <v>2000</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>194</v>
+      </c>
       <c r="U44" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="2:29">
+    <row r="45" spans="1:29">
+      <c r="A45" t="s">
+        <v>341</v>
+      </c>
+      <c r="B45" t="s">
+        <v>342</v>
+      </c>
+      <c r="C45">
+        <f>IF(RIGHT(B45,1)="k", VALUE(LEFT(B45,LEN(B45)-1))*1000, VALUE(B45))</f>
+        <v>2210</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>335</v>
+      </c>
       <c r="U45" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="2:29">
+    <row r="46" spans="1:29">
+      <c r="B46" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C46">
+        <f>IF(RIGHT(B46,1)="k", VALUE(LEFT(B46,LEN(B46)-1))*1000, VALUE(B46))</f>
+        <v>3320</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>194</v>
+      </c>
       <c r="U46" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="2:29">
+    <row r="47" spans="1:29">
+      <c r="B47" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C47">
+        <f>IF(RIGHT(B47,1)="k", VALUE(LEFT(B47,LEN(B47)-1))*1000, VALUE(B47))</f>
+        <v>3320</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>202</v>
+      </c>
       <c r="U47" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="2:29">
+    <row r="48" spans="1:29">
+      <c r="B48" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C48">
+        <f>IF(RIGHT(B48,1)="k", VALUE(LEFT(B48,LEN(B48)-1))*1000, VALUE(B48))</f>
+        <v>3920</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>202</v>
+      </c>
       <c r="U48" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="49" spans="21:21">
+    <row r="49" spans="1:21">
+      <c r="A49" t="s">
+        <v>300</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C49" s="3">
+        <f>IF(RIGHT(B49,1)="k", VALUE(LEFT(B49,LEN(B49)-1))*1000, VALUE(B49))</f>
+        <v>4750</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>194</v>
+      </c>
       <c r="U49" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="50" spans="21:21">
+    <row r="50" spans="1:21">
+      <c r="B50" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C50">
+        <f>IF(RIGHT(B50,1)="k", VALUE(LEFT(B50,LEN(B50)-1))*1000, VALUE(B50))</f>
+        <v>5000</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>202</v>
+      </c>
       <c r="U50" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="21:21">
+    <row r="51" spans="1:21">
+      <c r="B51" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C51">
+        <f>IF(RIGHT(B51,1)="k", VALUE(LEFT(B51,LEN(B51)-1))*1000, VALUE(B51))</f>
+        <v>6650</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>202</v>
+      </c>
       <c r="U51" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="21:21">
+    <row r="52" spans="1:21">
+      <c r="A52" t="s">
+        <v>306</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C52" s="3">
+        <f>IF(RIGHT(B52,1)="k", VALUE(LEFT(B52,LEN(B52)-1))*1000, VALUE(B52))</f>
+        <v>7150</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>194</v>
+      </c>
       <c r="U52" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="21:21">
+    <row r="53" spans="1:21">
+      <c r="A53" t="s">
+        <v>308</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C53" s="3">
+        <f>IF(RIGHT(B53,1)="k", VALUE(LEFT(B53,LEN(B53)-1))*1000, VALUE(B53))</f>
+        <v>7150</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>194</v>
+      </c>
       <c r="U53" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="21:21">
+    <row r="54" spans="1:21">
+      <c r="B54" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C54">
+        <f>IF(RIGHT(B54,1)="k", VALUE(LEFT(B54,LEN(B54)-1))*1000, VALUE(B54))</f>
+        <v>8060.0000000000009</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>193</v>
+      </c>
       <c r="U54" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="55" spans="21:21">
+    <row r="55" spans="1:21">
+      <c r="A55" t="s">
+        <v>289</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C55" s="3">
+        <f>IF(RIGHT(B55,1)="k", VALUE(LEFT(B55,LEN(B55)-1))*1000, VALUE(B55))</f>
+        <v>8870</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>220</v>
+      </c>
       <c r="U55" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="56" spans="21:21">
+    <row r="56" spans="1:21">
+      <c r="B56" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C56">
+        <f>IF(RIGHT(B56,1)="k", VALUE(LEFT(B56,LEN(B56)-1))*1000, VALUE(B56))</f>
+        <v>12000</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>196</v>
+      </c>
       <c r="U56" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="57" spans="21:21">
+    <row r="57" spans="1:21">
+      <c r="A57" t="s">
+        <v>302</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C57" s="3">
+        <f>IF(RIGHT(B57,1)="k", VALUE(LEFT(B57,LEN(B57)-1))*1000, VALUE(B57))</f>
+        <v>12100</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>194</v>
+      </c>
       <c r="U57" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="21:21">
+    <row r="58" spans="1:21">
+      <c r="B58" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C58">
+        <f>IF(RIGHT(B58,1)="k", VALUE(LEFT(B58,LEN(B58)-1))*1000, VALUE(B58))</f>
+        <v>16900</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>196</v>
+      </c>
       <c r="U58" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="21:21">
+    <row r="59" spans="1:21">
+      <c r="A59" t="s">
+        <v>294</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C59" s="3">
+        <f>IF(RIGHT(B59,1)="k", VALUE(LEFT(B59,LEN(B59)-1))*1000, VALUE(B59))</f>
+        <v>17400</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>194</v>
+      </c>
       <c r="U59" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="60" spans="21:21">
+    <row r="60" spans="1:21">
+      <c r="A60" t="s">
+        <v>311</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C60" s="3">
+        <f>IF(RIGHT(B60,1)="k", VALUE(LEFT(B60,LEN(B60)-1))*1000, VALUE(B60))</f>
+        <v>17400</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>194</v>
+      </c>
       <c r="U60" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="61" spans="21:21">
+    <row r="61" spans="1:21">
+      <c r="B61" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C61">
+        <f>IF(RIGHT(B61,1)="k", VALUE(LEFT(B61,LEN(B61)-1))*1000, VALUE(B61))</f>
+        <v>18000</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>193</v>
+      </c>
       <c r="U61" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="62" spans="21:21">
+    <row r="62" spans="1:21">
+      <c r="A62" t="s">
+        <v>296</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C62" s="3">
+        <f>IF(RIGHT(B62,1)="k", VALUE(LEFT(B62,LEN(B62)-1))*1000, VALUE(B62))</f>
+        <v>20000</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>194</v>
+      </c>
       <c r="U62" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="63" spans="21:21">
+    <row r="63" spans="1:21">
+      <c r="A63" t="s">
+        <v>325</v>
+      </c>
+      <c r="B63" t="s">
+        <v>326</v>
+      </c>
+      <c r="C63">
+        <f>IF(RIGHT(B63,1)="k", VALUE(LEFT(B63,LEN(B63)-1))*1000, VALUE(B63))</f>
+        <v>20000</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>327</v>
+      </c>
       <c r="U63" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="64" spans="21:21">
+    <row r="64" spans="1:21">
+      <c r="A64" t="s">
+        <v>298</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C64" s="3">
+        <f>IF(RIGHT(B64,1)="k", VALUE(LEFT(B64,LEN(B64)-1))*1000, VALUE(B64))</f>
+        <v>27000</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>194</v>
+      </c>
       <c r="U64" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="65" spans="21:21">
+    <row r="65" spans="1:21">
+      <c r="A65" t="s">
+        <v>304</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C65" s="3">
+        <f>IF(RIGHT(B65,1)="k", VALUE(LEFT(B65,LEN(B65)-1))*1000, VALUE(B65))</f>
+        <v>28000</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>194</v>
+      </c>
       <c r="U65" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="21:21">
+    <row r="66" spans="1:21">
+      <c r="B66" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C66">
+        <f>IF(RIGHT(B66,1)="k", VALUE(LEFT(B66,LEN(B66)-1))*1000, VALUE(B66))</f>
+        <v>30000</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>194</v>
+      </c>
       <c r="U66" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="67" spans="21:21">
+    <row r="67" spans="1:21">
+      <c r="A67" t="s">
+        <v>279</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C67" s="3">
+        <f>IF(RIGHT(B67,1)="k", VALUE(LEFT(B67,LEN(B67)-1))*1000, VALUE(B67))</f>
+        <v>30000</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>194</v>
+      </c>
       <c r="U67" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="68" spans="21:21">
+    <row r="68" spans="1:21">
+      <c r="A68" t="s">
+        <v>293</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C68" s="3">
+        <f>IF(RIGHT(B68,1)="k", VALUE(LEFT(B68,LEN(B68)-1))*1000, VALUE(B68))</f>
+        <v>30000</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>194</v>
+      </c>
       <c r="U68" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="69" spans="21:21">
+    <row r="69" spans="1:21">
+      <c r="A69" t="s">
+        <v>312</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C69" s="3">
+        <f>IF(RIGHT(B69,1)="k", VALUE(LEFT(B69,LEN(B69)-1))*1000, VALUE(B69))</f>
+        <v>30000</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>194</v>
+      </c>
       <c r="U69" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="70" spans="21:21">
+    <row r="70" spans="1:21">
+      <c r="B70" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C70">
+        <f>IF(RIGHT(B70,1)="k", VALUE(LEFT(B70,LEN(B70)-1))*1000, VALUE(B70))</f>
+        <v>38300</v>
+      </c>
+      <c r="E70" s="20" t="s">
+        <v>193</v>
+      </c>
       <c r="U70" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="71" spans="21:21">
+    <row r="71" spans="1:21">
+      <c r="B71" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C71">
+        <f>IF(RIGHT(B71,1)="k", VALUE(LEFT(B71,LEN(B71)-1))*1000, VALUE(B71))</f>
+        <v>47000</v>
+      </c>
+      <c r="E71" s="20" t="s">
+        <v>193</v>
+      </c>
       <c r="U71" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="21:21">
+    <row r="72" spans="1:21">
+      <c r="B72" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C72">
+        <f>IF(RIGHT(B72,1)="k", VALUE(LEFT(B72,LEN(B72)-1))*1000, VALUE(B72))</f>
+        <v>60400</v>
+      </c>
+      <c r="E72" s="20" t="s">
+        <v>202</v>
+      </c>
       <c r="U72" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="73" spans="21:21">
+    <row r="73" spans="1:21">
+      <c r="B73" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C73">
+        <f>IF(RIGHT(B73,1)="k", VALUE(LEFT(B73,LEN(B73)-1))*1000, VALUE(B73))</f>
+        <v>82000</v>
+      </c>
+      <c r="E73" s="20" t="s">
+        <v>193</v>
+      </c>
       <c r="U73" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="74" spans="21:21">
+    <row r="74" spans="1:21">
+      <c r="A74" t="s">
+        <v>314</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C74" s="3">
+        <f>IF(RIGHT(B74,1)="k", VALUE(LEFT(B74,LEN(B74)-1))*1000, VALUE(B74))</f>
+        <v>88700</v>
+      </c>
       <c r="U74" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="75" spans="21:21">
+    <row r="75" spans="1:21">
+      <c r="A75" t="s">
+        <v>287</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C75" s="3">
+        <f>IF(RIGHT(B75,1)="k", VALUE(LEFT(B75,LEN(B75)-1))*1000, VALUE(B75))</f>
+        <v>102000</v>
+      </c>
+      <c r="E75" s="19" t="s">
+        <v>194</v>
+      </c>
       <c r="U75" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="76" spans="21:21">
+    <row r="76" spans="1:21">
+      <c r="A76" t="s">
+        <v>313</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C76" s="3">
+        <f>IF(RIGHT(B76,1)="k", VALUE(LEFT(B76,LEN(B76)-1))*1000, VALUE(B76))</f>
+        <v>102000</v>
+      </c>
+      <c r="E76" s="19" t="s">
+        <v>194</v>
+      </c>
       <c r="U76" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="21:21">
+    <row r="77" spans="1:21">
+      <c r="A77" t="s">
+        <v>285</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C77" s="3">
+        <f>IF(RIGHT(B77,1)="k", VALUE(LEFT(B77,LEN(B77)-1))*1000, VALUE(B77))</f>
+        <v>120000</v>
+      </c>
+      <c r="E77" s="19" t="s">
+        <v>194</v>
+      </c>
       <c r="U77" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="82" spans="13:15">
+    <row r="78" spans="1:21">
+      <c r="A78" t="s">
+        <v>332</v>
+      </c>
+      <c r="B78" t="s">
+        <v>333</v>
+      </c>
+      <c r="C78">
+        <f>IF(RIGHT(B78,1)="k", VALUE(LEFT(B78,LEN(B78)-1))*1000, VALUE(B78))</f>
+        <v>140000</v>
+      </c>
+      <c r="E78" s="20" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21">
+      <c r="A79" t="s">
+        <v>283</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C79" s="3">
+        <f>IF(RIGHT(B79,1)="k", VALUE(LEFT(B79,LEN(B79)-1))*1000, VALUE(B79))</f>
+        <v>150000</v>
+      </c>
+      <c r="E79" s="19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21">
+      <c r="A80" t="s">
+        <v>328</v>
+      </c>
+      <c r="B80" t="s">
+        <v>329</v>
+      </c>
+      <c r="C80">
+        <f>IF(RIGHT(B80,1)="k", VALUE(LEFT(B80,LEN(B80)-1))*1000, VALUE(B80))</f>
+        <v>180000</v>
+      </c>
+      <c r="E80" s="20" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="B81" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C81">
+        <f>IF(RIGHT(B81,1)="k", VALUE(LEFT(B81,LEN(B81)-1))*1000, VALUE(B81))</f>
+        <v>191000</v>
+      </c>
+      <c r="E81" s="20" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="B82" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C82">
+        <f>IF(RIGHT(B82,1)="k", VALUE(LEFT(B82,LEN(B82)-1))*1000, VALUE(B82))</f>
+        <v>200000</v>
+      </c>
+      <c r="E82" s="20" t="s">
+        <v>196</v>
+      </c>
       <c r="M82" s="17" t="s">
         <v>273</v>
       </c>
       <c r="N82" s="17"/>
       <c r="O82" s="17"/>
     </row>
-    <row r="83" spans="13:15">
+    <row r="83" spans="1:15">
+      <c r="A83" t="s">
+        <v>330</v>
+      </c>
+      <c r="B83" t="s">
+        <v>331</v>
+      </c>
+      <c r="C83">
+        <f>IF(RIGHT(B83,1)="k", VALUE(LEFT(B83,LEN(B83)-1))*1000, VALUE(B83))</f>
+        <v>249000</v>
+      </c>
+      <c r="E83" s="20" t="s">
+        <v>317</v>
+      </c>
       <c r="M83" s="17"/>
       <c r="N83" s="17"/>
       <c r="O83" s="17"/>
     </row>
-    <row r="84" spans="13:15">
+    <row r="84" spans="1:15">
+      <c r="B84" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C84">
+        <f>IF(RIGHT(B84,1)="k", VALUE(LEFT(B84,LEN(B84)-1))*1000, VALUE(B84))</f>
+        <v>250000</v>
+      </c>
+      <c r="E84" s="20" t="s">
+        <v>196</v>
+      </c>
       <c r="M84" s="17"/>
       <c r="N84" s="17"/>
       <c r="O84" s="17"/>
     </row>
-    <row r="85" spans="13:15">
+    <row r="85" spans="1:15">
+      <c r="A85" t="s">
+        <v>275</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C85">
+        <f>IF(RIGHT(B85,1)="K",VALUE(LEFT(B85,LEN(B85)-1))*1000,VALUE(B85))</f>
+        <v>634000</v>
+      </c>
+      <c r="E85" s="20" t="s">
+        <v>196</v>
+      </c>
       <c r="M85" s="17"/>
       <c r="N85" s="17"/>
       <c r="O85" s="17"/>
     </row>
-    <row r="86" spans="13:15">
+    <row r="86" spans="1:15">
       <c r="M86" s="17"/>
       <c r="N86" s="17"/>
       <c r="O86" s="17"/>
     </row>
   </sheetData>
-  <sortState ref="F3:J35">
-    <sortCondition ref="H3:H35"/>
+  <sortState ref="A3:E85">
+    <sortCondition ref="C3:C85"/>
   </sortState>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
